--- a/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>16,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-3,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,57</t>
+          <t>-2,71; 12,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,97</t>
+          <t>0,47; 15,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,81</t>
+          <t>-11,14; -0,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,99</t>
+          <t>7,16; 26,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,11</t>
+          <t>-8,82; 4,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,89</t>
+          <t>-10,2; 4,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,1</t>
+          <t>3,83; 17,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,02</t>
+          <t>-2,71; 8,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,84</t>
+          <t>-8,48; 0,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>226,71%</t>
+          <t>65,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>143,52%</t>
+          <t>138,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-46,09%</t>
+          <t>-81,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>152,04%</t>
+          <t>257,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>101,67%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>-44,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>184,34%</t>
+          <t>174,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>119,71%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>-63,33%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,12; 479,7</t>
+          <t>-48,56; 571,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,43; 330,62</t>
+          <t>-4,36; 683,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 48,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,85; 318,63</t>
+          <t>41,33; 1019,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 261,16</t>
+          <t>-82,12; 178,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 85,4</t>
+          <t>-100,0; 245,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,24; 318,01</t>
+          <t>41,25; 524,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,05; 225,45</t>
+          <t>-32,36; 230,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 33,7</t>
+          <t>-100,0; 26,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 12,03</t>
+          <t>4,94; 12,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 15,9</t>
+          <t>2,08; 8,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -0,04</t>
+          <t>-4,13; 0,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 26,87</t>
+          <t>3,91; 11,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 4,57</t>
+          <t>1,63; 9,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 4,31</t>
+          <t>-4,37; 2,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 17,35</t>
+          <t>5,19; 11,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 8,03</t>
+          <t>2,78; 8,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,26</t>
+          <t>-3,28; 0,84</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>226,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>138,31%</t>
+          <t>143,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-81,38%</t>
+          <t>-46,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>257,01%</t>
+          <t>152,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,16%</t>
+          <t>101,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,75%</t>
+          <t>-20,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>174,61%</t>
+          <t>184,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>119,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-63,33%</t>
+          <t>-34,22%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 571,25</t>
+          <t>85,12; 479,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 683,76</t>
+          <t>32,43; 330,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,64; 48,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>41,33; 1019,28</t>
+          <t>50,85; 318,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,12; 178,35</t>
+          <t>19,23; 261,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 245,06</t>
+          <t>-66,52; 85,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,25; 524,56</t>
+          <t>92,24; 318,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 230,42</t>
+          <t>49,05; 225,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,99</t>
+          <t>-62,18; 33,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 12,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 15,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -0,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 26,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 17,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 8,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>138,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-81,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>257,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>174,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-63,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 571,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 683,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,33; 1019,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,12; 178,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 245,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,25; 524,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 230,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,99</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,57</t>
+          <t>3,76; 14,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,97</t>
+          <t>0,84; 9,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,81</t>
+          <t>-3,92; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,99</t>
+          <t>5,64; 17,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,11</t>
+          <t>-3,1; 6,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,89</t>
+          <t>-7,03; 3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,1</t>
+          <t>6,16; 14,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,02</t>
+          <t>0,58; 7,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,84</t>
+          <t>-4,17; 2,52</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>226,71%</t>
+          <t>211,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>143,52%</t>
+          <t>127,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-46,09%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>152,04%</t>
+          <t>192,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>101,67%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>-36,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>184,34%</t>
+          <t>202,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>119,71%</t>
+          <t>74,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>-22,62%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,12; 479,7</t>
+          <t>50,61; 682,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,43; 330,62</t>
+          <t>8,22; 475,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 48,64</t>
+          <t>-75,26; 269,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,85; 318,63</t>
+          <t>47,82; 461,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 261,16</t>
+          <t>-34,64; 189,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 85,4</t>
+          <t>-86,1; 111,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,24; 318,01</t>
+          <t>84,2; 402,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,05; 225,45</t>
+          <t>6,51; 198,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 33,7</t>
+          <t>-67,52; 72,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-2,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,2</t>
+          <t>2,47; 11,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,44</t>
+          <t>2,29; 11,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,14</t>
+          <t>-6,47; -1,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,84</t>
+          <t>2,94; 13,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,06</t>
+          <t>0,48; 9,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 1,8</t>
+          <t>-4,72; 3,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,18</t>
+          <t>4,35; 10,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,24</t>
+          <t>2,61; 9,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,04</t>
+          <t>-4,64; -0,04</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>184,66%</t>
+          <t>163,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>144,66%</t>
+          <t>164,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-54,19%</t>
+          <t>-83,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>183,6%</t>
+          <t>160,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>70,03%</t>
+          <t>102,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>184,61%</t>
+          <t>161,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>103,33%</t>
+          <t>132,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>-51,61%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,78; 391,32</t>
+          <t>35,63; 425,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,93; 331,01</t>
+          <t>28,18; 424,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,55; 12,33</t>
+          <t>-100,0; -17,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>74,14; 337,35</t>
+          <t>41,84; 444,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,81; 178,07</t>
+          <t>0,59; 314,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 45,08</t>
+          <t>-71,42; 107,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>102,56; 295,18</t>
+          <t>71,08; 321,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,07; 190,47</t>
+          <t>48,31; 275,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,07; -1,57</t>
+          <t>-80,69; 5,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7,58</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9,85</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 11,06</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 9,23</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 0,03</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 13,84</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 6,95</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 1,88</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 11,32</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 7,2</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 0,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>184,66%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>144,66%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-54,19%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>183,6%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>70,03%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-25,08%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>184,61%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>103,33%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-40,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69,76; 355,3</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>48,04; 328,76</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-82,68; 17,45</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>76,16; 332,22</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 166,68</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-67,55; 54,76</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>104,59; 295,04</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>40,62; 191,92</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-65,29; 7,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 14,44</t>
+          <t>3,39; 13,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 9,83</t>
+          <t>0,59; 9,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,75</t>
+          <t>-4,29; 4,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,63</t>
+          <t>5,55; 18,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,83</t>
+          <t>-2,75; 6,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,34</t>
+          <t>-7,02; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 14,5</t>
+          <t>6,08; 14,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,12</t>
+          <t>0,29; 6,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,52</t>
+          <t>-4,32; 2,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50,61; 682,16</t>
+          <t>48,39; 661,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 475,87</t>
+          <t>2,66; 418,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,26; 269,82</t>
+          <t>-80,87; 223,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,82; 461,51</t>
+          <t>57,25; 509,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 189,06</t>
+          <t>-32,84; 168,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,1; 111,79</t>
+          <t>-84,48; 117,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,2; 402,65</t>
+          <t>80,02; 383,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 198,43</t>
+          <t>2,14; 192,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 72,39</t>
+          <t>-66,52; 83,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,25</t>
+          <t>2,27; 11,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,92</t>
+          <t>2,23; 12,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -1,16</t>
+          <t>-6,42; -1,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 13,26</t>
+          <t>2,71; 13,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 9,54</t>
+          <t>0,56; 10,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,2</t>
+          <t>-4,65; 3,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,84</t>
+          <t>3,92; 10,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,3</t>
+          <t>2,64; 9,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,04</t>
+          <t>-4,63; -0,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,63; 425,33</t>
+          <t>29,24; 443,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,18; 424,11</t>
+          <t>25,27; 477,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -17,92</t>
+          <t>-100,0; -21,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,84; 444,84</t>
+          <t>37,01; 395,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,59; 314,5</t>
+          <t>0,55; 313,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,42; 107,87</t>
+          <t>-72,77; 108,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>71,08; 321,39</t>
+          <t>65,06; 325,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,31; 275,45</t>
+          <t>40,77; 275,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-80,69; 5,19</t>
+          <t>-78,53; 8,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,06</t>
+          <t>4,33; 10,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,23</t>
+          <t>2,67; 9,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,03</t>
+          <t>-4,72; -0,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,84</t>
+          <t>6,1; 13,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,95</t>
+          <t>0,66; 7,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,88</t>
+          <t>-4,45; 2,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,32</t>
+          <t>6,04; 11,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,2</t>
+          <t>2,56; 7,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,11</t>
+          <t>-3,76; -0,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>69,76; 355,3</t>
+          <t>81,45; 383,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>48,04; 328,76</t>
+          <t>44,03; 305,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,68; 17,45</t>
+          <t>-83,29; 8,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>76,16; 332,22</t>
+          <t>87,5; 360,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,62; 166,68</t>
+          <t>3,07; 184,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 54,76</t>
+          <t>-65,88; 56,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>104,59; 295,04</t>
+          <t>102,97; 299,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>40,62; 191,92</t>
+          <t>42,86; 185,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 7,03</t>
+          <t>-65,06; 1,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>8,44</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>5,08</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,77</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 13,72</t>
+          <t>5,6; 18,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 9,3</t>
+          <t>-3,27; 6,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,74</t>
+          <t>-6,97; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 18,34</t>
+          <t>3,49; 14,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,55</t>
+          <t>0,96; 9,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 3,15</t>
+          <t>-3,85; 4,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,41</t>
+          <t>6,16; 14,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,92</t>
+          <t>0,73; 7,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,55</t>
+          <t>-4,13; 2,83</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>192,01%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37,01%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-33,41%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>211,14%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>127,16%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,71%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>192,01%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>37,01%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,12%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,62%</t>
+          <t>-19,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,39; 661,42</t>
+          <t>57,67; 533,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 418,57</t>
+          <t>-37,56; 179,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,87; 223,19</t>
+          <t>-84,76; 98,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>57,25; 509,65</t>
+          <t>45,06; 650,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 168,59</t>
+          <t>5,21; 477,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,48; 117,18</t>
+          <t>-79,77; 204,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,02; 383,76</t>
+          <t>91,11; 441,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 192,58</t>
+          <t>9,17; 205,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 83,38</t>
+          <t>-67,83; 85,05</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>6,84</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>6,88</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,31</t>
+          <t>2,96; 13,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 12,0</t>
+          <t>0,23; 9,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -1,19</t>
+          <t>-5,31; 2,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 13,18</t>
+          <t>2,87; 11,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,21</t>
+          <t>2,39; 11,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,24</t>
+          <t>-6,3; -1,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,74</t>
+          <t>4,26; 10,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 9,25</t>
+          <t>2,89; 9,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,04</t>
+          <t>-4,5; -0,1</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>160,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>102,96%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-25,92%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>163,57%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>164,66%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-83,04%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>160,59%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>102,96%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-16,57%</t>
+          <t>-82,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,61%</t>
+          <t>-55,07%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,24; 443,99</t>
+          <t>38,37; 408,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,27; 477,0</t>
+          <t>0,48; 303,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -21,09</t>
+          <t>-77,68; 81,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,01; 395,75</t>
+          <t>34,71; 469,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 313,68</t>
+          <t>32,37; 425,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 108,89</t>
+          <t>-100,0; -17,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>65,06; 325,47</t>
+          <t>71,13; 333,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,77; 275,48</t>
+          <t>51,69; 301,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,53; 8,75</t>
+          <t>-82,01; 1,54</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>9,85</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>7,58</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>5,94</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,96</t>
+          <t>5,8; 13,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,3</t>
+          <t>0,59; 7,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; -0,04</t>
+          <t>-4,57; 1,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,78</t>
+          <t>4,44; 11,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,4</t>
+          <t>2,58; 9,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,11</t>
+          <t>-4,48; 0,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,19</t>
+          <t>6,11; 11,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,19</t>
+          <t>2,68; 7,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,15</t>
+          <t>-4,09; -0,14</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>183,6%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>70,03%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-29,76%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>184,66%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>144,66%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-54,19%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>183,6%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>70,03%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>-53,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>-42,1%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>81,45; 383,79</t>
+          <t>74,14; 337,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>44,03; 305,87</t>
+          <t>4,81; 178,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,29; 8,56</t>
+          <t>-71,18; 42,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87,5; 360,07</t>
+          <t>77,78; 391,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,07; 184,1</t>
+          <t>47,93; 331,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 56,66</t>
+          <t>-82,65; 15,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>102,97; 299,48</t>
+          <t>102,56; 295,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>42,86; 185,05</t>
+          <t>42,07; 190,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 1,74</t>
+          <t>-69,57; -2,86</t>
         </is>
       </c>
     </row>
